--- a/разделение по категориям, фильтры и их наполнение.xlsx
+++ b/разделение по категориям, фильтры и их наполнение.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvora.n\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shvora.n\Desktop\Out\kubick\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -1591,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1691,8 +1691,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1703,40 +1727,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2046,8 +2043,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B2:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,29 +2078,29 @@
       <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
     </row>
     <row r="3" spans="2:20" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -2149,8 +2146,8 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="19" t="s">
         <v>425</v>
       </c>
@@ -2192,8 +2189,8 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="19" t="s">
         <v>425</v>
       </c>
@@ -2247,8 +2244,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="19" t="s">
         <v>425</v>
       </c>
@@ -2280,8 +2277,8 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="19" t="s">
         <v>425</v>
       </c>
@@ -2309,8 +2306,8 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="2:20" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -2356,8 +2353,8 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="19" t="s">
         <v>425</v>
       </c>
@@ -2399,8 +2396,8 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="19" t="s">
         <v>425</v>
       </c>
@@ -2454,8 +2451,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="19" t="s">
         <v>425</v>
       </c>
@@ -2487,8 +2484,8 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="19" t="s">
         <v>425</v>
       </c>
@@ -2516,8 +2513,8 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -2551,8 +2548,8 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="2:20" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="19" t="s">
         <v>425</v>
       </c>
@@ -2592,8 +2589,8 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="19" t="s">
         <v>425</v>
       </c>
@@ -2621,8 +2618,8 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -2656,8 +2653,8 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="19" t="s">
         <v>425</v>
       </c>
@@ -2695,8 +2692,8 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="19" t="s">
         <v>425</v>
       </c>
@@ -2724,8 +2721,8 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2759,8 +2756,8 @@
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="2:20" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="19" t="s">
         <v>425</v>
       </c>
@@ -2788,8 +2785,8 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="19" t="s">
         <v>425</v>
       </c>
@@ -2821,8 +2818,8 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="2:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2862,8 +2859,8 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="2:20" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="19" t="s">
         <v>425</v>
       </c>
@@ -2905,8 +2902,8 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="19" t="s">
         <v>425</v>
       </c>
@@ -2960,8 +2957,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="19" t="s">
         <v>425</v>
       </c>
@@ -2993,8 +2990,8 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3024,8 +3021,8 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="19" t="s">
         <v>425</v>
       </c>
@@ -3053,8 +3050,8 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="2:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="19" t="s">
         <v>425</v>
       </c>
@@ -3084,8 +3081,8 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="45" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="19" t="s">
@@ -3115,8 +3112,8 @@
       <c r="T29" s="4"/>
     </row>
     <row r="30" spans="2:20" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
-      <c r="C30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="19" t="s">
         <v>425</v>
       </c>
@@ -3148,8 +3145,8 @@
       <c r="T30" s="4"/>
     </row>
     <row r="31" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="19" t="s">
         <v>425</v>
       </c>
@@ -3181,8 +3178,8 @@
       <c r="T31" s="4"/>
     </row>
     <row r="32" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="52"/>
-      <c r="C32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="19" t="s">
         <v>425</v>
       </c>
@@ -3206,8 +3203,8 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="2:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -3248,8 +3245,8 @@
       <c r="T33" s="4"/>
     </row>
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="52"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="19" t="s">
         <v>425</v>
       </c>
@@ -3276,8 +3273,8 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="51" t="s">
         <v>443</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -3311,8 +3308,8 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="20" t="s">
         <v>425</v>
       </c>
@@ -3340,8 +3337,8 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="48" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="51" t="s">
         <v>447</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -3379,8 +3376,8 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="20" t="s">
         <v>425</v>
       </c>
@@ -3412,8 +3409,8 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="20" t="s">
         <v>425</v>
       </c>
@@ -3478,10 +3475,10 @@
       <c r="T40" s="33"/>
     </row>
     <row r="41" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -3521,8 +3518,8 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="19" t="s">
         <v>425</v>
       </c>
@@ -3562,8 +3559,8 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="40" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -3595,8 +3592,8 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="19" t="s">
         <v>425</v>
       </c>
@@ -3636,8 +3633,8 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="19" t="s">
         <v>425</v>
       </c>
@@ -3667,8 +3664,8 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="40" t="s">
         <v>118</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -3702,8 +3699,8 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="19" t="s">
         <v>425</v>
       </c>
@@ -3737,8 +3734,8 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="19" t="s">
         <v>425</v>
       </c>
@@ -3768,8 +3765,8 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
-      <c r="C49" s="39" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -3805,8 +3802,8 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="19" t="s">
         <v>425</v>
       </c>
@@ -3838,8 +3835,8 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="47"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="19" t="s">
         <v>425</v>
       </c>
@@ -3871,8 +3868,8 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="47"/>
-      <c r="C52" s="39" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="40" t="s">
         <v>124</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -3906,8 +3903,8 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="47"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="19" t="s">
         <v>425</v>
       </c>
@@ -3935,8 +3932,8 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="47"/>
-      <c r="C54" s="39" t="s">
+      <c r="B54" s="43"/>
+      <c r="C54" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -3968,8 +3965,8 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="19" t="s">
         <v>425</v>
       </c>
@@ -3999,8 +3996,8 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="47"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="19" t="s">
         <v>425</v>
       </c>
@@ -4028,8 +4025,8 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="43"/>
+      <c r="C57" s="40" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="19" t="s">
@@ -4059,8 +4056,8 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="47"/>
-      <c r="C58" s="39"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="19" t="s">
         <v>425</v>
       </c>
@@ -4114,13 +4111,13 @@
       <c r="T59" s="33"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="39" t="s">
         <v>151</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -4151,9 +4148,9 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="15" t="s">
         <v>130</v>
       </c>
@@ -4186,9 +4183,9 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="46"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="15" t="s">
         <v>117</v>
       </c>
@@ -4215,9 +4212,9 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="46"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="5" t="s">
         <v>13</v>
       </c>
@@ -4242,9 +4239,9 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="43" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41" t="s">
         <v>168</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -4273,9 +4270,9 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="43"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="15" t="s">
         <v>130</v>
       </c>
@@ -4306,11 +4303,11 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
-      <c r="C66" s="39" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="41" t="s">
         <v>177</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -4341,9 +4338,9 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="43"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="15" t="s">
         <v>182</v>
       </c>
@@ -4372,9 +4369,9 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="43"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
       <c r="E68" s="5" t="s">
         <v>13</v>
       </c>
@@ -4399,9 +4396,9 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="43" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -4430,9 +4427,9 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="43"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="15" t="s">
         <v>130</v>
       </c>
@@ -4467,9 +4464,9 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="43"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="15" t="s">
         <v>182</v>
       </c>
@@ -4500,9 +4497,9 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="43"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="5" t="s">
         <v>13</v>
       </c>
@@ -4527,8 +4524,8 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="39"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="19" t="s">
         <v>201</v>
       </c>
@@ -4556,11 +4553,11 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="39" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="41" t="s">
         <v>205</v>
       </c>
       <c r="E74" s="15" t="s">
@@ -4587,9 +4584,9 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="43"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="15" t="s">
         <v>130</v>
       </c>
@@ -4614,9 +4611,9 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="43"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="1" t="s">
         <v>211</v>
       </c>
@@ -4641,8 +4638,8 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="40"/>
       <c r="D77" s="19" t="s">
         <v>212</v>
       </c>
@@ -4666,8 +4663,8 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="19" t="s">
         <v>213</v>
       </c>
@@ -4691,11 +4688,11 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="39" t="s">
+      <c r="B79" s="49"/>
+      <c r="C79" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="39" t="s">
         <v>215</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4726,9 +4723,9 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="46"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="5" t="s">
         <v>13</v>
       </c>
@@ -4755,9 +4752,9 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="46" t="s">
+      <c r="B81" s="49"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="39" t="s">
         <v>227</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -4786,9 +4783,9 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="46"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="39"/>
       <c r="E82" s="15" t="s">
         <v>130</v>
       </c>
@@ -4813,9 +4810,9 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="46"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="1" t="s">
         <v>211</v>
       </c>
@@ -4840,11 +4837,11 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
-      <c r="C84" s="39" t="s">
+      <c r="B84" s="49"/>
+      <c r="C84" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="40" t="s">
         <v>229</v>
       </c>
       <c r="E84" s="15" t="s">
@@ -4873,9 +4870,9 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="5" t="s">
         <v>13</v>
       </c>
@@ -4910,9 +4907,9 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="1" t="s">
         <v>211</v>
       </c>
@@ -4937,9 +4934,9 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="43" t="s">
+      <c r="B87" s="49"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41" t="s">
         <v>240</v>
       </c>
       <c r="E87" s="15" t="s">
@@ -4966,9 +4963,9 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="43"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="1" t="s">
         <v>130</v>
       </c>
@@ -4999,9 +4996,9 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="41"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="43"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="5" t="s">
         <v>13</v>
       </c>
@@ -5040,9 +5037,9 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="43"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="1" t="s">
         <v>211</v>
       </c>
@@ -5067,8 +5064,8 @@
       <c r="T90" s="1"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="19" t="s">
         <v>251</v>
       </c>
@@ -5090,8 +5087,8 @@
       <c r="T91" s="1"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="19" t="s">
         <v>252</v>
       </c>
@@ -5133,8 +5130,8 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="39" t="s">
+      <c r="B93" s="49"/>
+      <c r="C93" s="40" t="s">
         <v>256</v>
       </c>
       <c r="D93" s="19" t="s">
@@ -5166,9 +5163,9 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39" t="s">
+      <c r="B94" s="49"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40" t="s">
         <v>261</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -5215,9 +5212,9 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="2" t="s">
         <v>130</v>
       </c>
@@ -5260,9 +5257,9 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
@@ -5293,9 +5290,9 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
       <c r="E97" s="1" t="s">
         <v>211</v>
       </c>
@@ -5320,9 +5317,9 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="43" t="s">
+      <c r="B98" s="49"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41" t="s">
         <v>288</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -5351,9 +5348,9 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="43"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="1" t="s">
         <v>211</v>
       </c>
@@ -5378,9 +5375,9 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="43" t="s">
+      <c r="B100" s="49"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41" t="s">
         <v>289</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -5417,9 +5414,9 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="43"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="2" t="s">
         <v>130</v>
       </c>
@@ -5444,9 +5441,9 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="43" t="s">
+      <c r="B102" s="49"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="41" t="s">
         <v>292</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -5479,9 +5476,9 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="43"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="2" t="s">
         <v>130</v>
       </c>
@@ -5510,9 +5507,9 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B104" s="41"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="43"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="41"/>
       <c r="E104" s="1" t="s">
         <v>13</v>
       </c>
@@ -5537,9 +5534,9 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="43" t="s">
+      <c r="B105" s="49"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="41" t="s">
         <v>295</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5572,9 +5569,9 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="43"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="41"/>
       <c r="E106" s="1" t="s">
         <v>211</v>
       </c>
@@ -5599,9 +5596,9 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="43"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="1" t="s">
         <v>13</v>
       </c>
@@ -5626,8 +5623,8 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
-      <c r="C108" s="39" t="s">
+      <c r="B108" s="49"/>
+      <c r="C108" s="40" t="s">
         <v>297</v>
       </c>
       <c r="D108" s="26" t="s">
@@ -5657,8 +5654,8 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="40"/>
       <c r="D109" s="26" t="s">
         <v>301</v>
       </c>
@@ -5686,8 +5683,8 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="41"/>
-      <c r="C110" s="39"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="40"/>
       <c r="D110" s="26" t="s">
         <v>304</v>
       </c>
@@ -5715,7 +5712,7 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="42"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="27" t="s">
         <v>296</v>
       </c>
@@ -5744,10 +5741,10 @@
       <c r="D112" s="38"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="40" t="s">
         <v>306</v>
       </c>
       <c r="D113" s="19" t="s">
@@ -5777,8 +5774,8 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="43"/>
-      <c r="C114" s="39"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="40"/>
       <c r="D114" s="19" t="s">
         <v>307</v>
       </c>
@@ -5804,8 +5801,8 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="43"/>
-      <c r="C115" s="39"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="40"/>
       <c r="D115" s="19" t="s">
         <v>308</v>
       </c>
@@ -5833,8 +5830,8 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="43"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="40"/>
       <c r="D116" s="1" t="s">
         <v>211</v>
       </c>
@@ -5860,8 +5857,8 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="43"/>
-      <c r="C117" s="39" t="s">
+      <c r="B117" s="41"/>
+      <c r="C117" s="40" t="s">
         <v>317</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -5889,8 +5886,8 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B118" s="43"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="40"/>
       <c r="D118" s="19" t="s">
         <v>307</v>
       </c>
@@ -5916,8 +5913,8 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B119" s="43"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="40"/>
       <c r="D119" s="19" t="s">
         <v>15</v>
       </c>
@@ -5943,8 +5940,8 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B120" s="43"/>
-      <c r="C120" s="39"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="40"/>
       <c r="D120" s="19" t="s">
         <v>144</v>
       </c>
@@ -5970,8 +5967,8 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B121" s="43"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="40"/>
       <c r="D121" s="19" t="s">
         <v>322</v>
       </c>
@@ -5997,8 +5994,8 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="43"/>
-      <c r="C122" s="39"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="40"/>
       <c r="D122" s="19" t="s">
         <v>130</v>
       </c>
@@ -6026,8 +6023,8 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B123" s="43"/>
-      <c r="C123" s="39"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="40"/>
       <c r="D123" s="19" t="s">
         <v>308</v>
       </c>
@@ -6055,8 +6052,8 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B124" s="43"/>
-      <c r="C124" s="39"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="40"/>
       <c r="D124" s="19" t="s">
         <v>13</v>
       </c>
@@ -6082,8 +6079,8 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B125" s="43"/>
-      <c r="C125" s="39"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="40"/>
       <c r="D125" s="1" t="s">
         <v>211</v>
       </c>
@@ -6109,8 +6106,8 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="43"/>
-      <c r="C126" s="39" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="40" t="s">
         <v>331</v>
       </c>
       <c r="D126" s="19" t="s">
@@ -6138,8 +6135,8 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="43"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="40"/>
       <c r="D127" s="19" t="s">
         <v>322</v>
       </c>
@@ -6171,8 +6168,8 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B128" s="43"/>
-      <c r="C128" s="39"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="40"/>
       <c r="D128" s="19" t="s">
         <v>130</v>
       </c>
@@ -6198,8 +6195,8 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="43"/>
-      <c r="C129" s="39"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="40"/>
       <c r="D129" s="19" t="s">
         <v>307</v>
       </c>
@@ -6229,8 +6226,8 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B130" s="43"/>
-      <c r="C130" s="39"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="40"/>
       <c r="D130" s="19" t="s">
         <v>13</v>
       </c>
@@ -6256,8 +6253,8 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="43"/>
-      <c r="C131" s="39" t="s">
+      <c r="B131" s="41"/>
+      <c r="C131" s="40" t="s">
         <v>340</v>
       </c>
       <c r="D131" s="19" t="s">
@@ -6285,8 +6282,8 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="43"/>
-      <c r="C132" s="39"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="40"/>
       <c r="D132" s="19" t="s">
         <v>69</v>
       </c>
@@ -6314,8 +6311,8 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B133" s="43"/>
-      <c r="C133" s="39"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="40"/>
       <c r="D133" s="19" t="s">
         <v>322</v>
       </c>
@@ -6345,8 +6342,8 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="43"/>
-      <c r="C134" s="39"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="40"/>
       <c r="D134" s="19" t="s">
         <v>307</v>
       </c>
@@ -6372,8 +6369,8 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="43"/>
-      <c r="C135" s="39"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="40"/>
       <c r="D135" s="19" t="s">
         <v>13</v>
       </c>
@@ -6405,8 +6402,8 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="43"/>
-      <c r="C136" s="39" t="s">
+      <c r="B136" s="41"/>
+      <c r="C136" s="40" t="s">
         <v>348</v>
       </c>
       <c r="D136" s="19" t="s">
@@ -6434,8 +6431,8 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B137" s="43"/>
-      <c r="C137" s="39"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="40"/>
       <c r="D137" s="19" t="s">
         <v>69</v>
       </c>
@@ -6469,8 +6466,8 @@
       <c r="T137" s="1"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B138" s="43"/>
-      <c r="C138" s="39"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="40"/>
       <c r="D138" s="19" t="s">
         <v>353</v>
       </c>
@@ -6496,8 +6493,8 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B139" s="43"/>
-      <c r="C139" s="39"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="40"/>
       <c r="D139" s="19" t="s">
         <v>13</v>
       </c>
@@ -6533,8 +6530,8 @@
       <c r="T139" s="1"/>
     </row>
     <row r="140" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="43"/>
-      <c r="C140" s="39" t="s">
+      <c r="B140" s="41"/>
+      <c r="C140" s="40" t="s">
         <v>358</v>
       </c>
       <c r="D140" s="19" t="s">
@@ -6562,8 +6559,8 @@
       <c r="T140" s="1"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B141" s="43"/>
-      <c r="C141" s="39"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="40"/>
       <c r="D141" s="19" t="s">
         <v>13</v>
       </c>
@@ -6589,8 +6586,8 @@
       <c r="T141" s="1"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B142" s="43"/>
-      <c r="C142" s="39" t="s">
+      <c r="B142" s="41"/>
+      <c r="C142" s="40" t="s">
         <v>361</v>
       </c>
       <c r="D142" s="19" t="s">
@@ -6622,8 +6619,8 @@
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B143" s="43"/>
-      <c r="C143" s="39"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="40"/>
       <c r="D143" s="19" t="s">
         <v>322</v>
       </c>
@@ -6649,8 +6646,8 @@
       <c r="T143" s="1"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B144" s="43"/>
-      <c r="C144" s="39"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="40"/>
       <c r="D144" s="19" t="s">
         <v>307</v>
       </c>
@@ -6682,8 +6679,8 @@
       <c r="T144" s="1"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B145" s="43"/>
-      <c r="C145" s="39"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="40"/>
       <c r="D145" s="19" t="s">
         <v>130</v>
       </c>
@@ -6723,8 +6720,8 @@
       <c r="T145" s="1"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" s="43"/>
-      <c r="C146" s="39"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="40"/>
       <c r="D146" s="19" t="s">
         <v>13</v>
       </c>
@@ -6756,8 +6753,8 @@
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B147" s="43"/>
-      <c r="C147" s="39" t="s">
+      <c r="B147" s="41"/>
+      <c r="C147" s="40" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="19" t="s">
@@ -6785,8 +6782,8 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B148" s="43"/>
-      <c r="C148" s="39"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="40"/>
       <c r="D148" s="19" t="s">
         <v>144</v>
       </c>
@@ -6816,8 +6813,8 @@
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B149" s="43"/>
-      <c r="C149" s="39"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="40"/>
       <c r="D149" s="19" t="s">
         <v>130</v>
       </c>
@@ -6845,8 +6842,8 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B150" s="43"/>
-      <c r="C150" s="39"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="40"/>
       <c r="D150" s="19" t="s">
         <v>13</v>
       </c>
@@ -6895,10 +6892,10 @@
       <c r="T151" s="33"/>
     </row>
     <row r="152" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="C152" s="39" t="s">
+      <c r="C152" s="40" t="s">
         <v>396</v>
       </c>
       <c r="D152" s="23" t="s">
@@ -6924,8 +6921,8 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
       <c r="D153" s="23" t="s">
         <v>436</v>
       </c>
@@ -6949,8 +6946,8 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
       <c r="D154" s="23" t="s">
         <v>437</v>
       </c>
@@ -6974,8 +6971,8 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39" t="s">
+      <c r="B155" s="40"/>
+      <c r="C155" s="40" t="s">
         <v>438</v>
       </c>
       <c r="D155" s="19" t="s">
@@ -7001,8 +6998,8 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
       <c r="D156" s="19" t="s">
         <v>440</v>
       </c>
@@ -7026,8 +7023,8 @@
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
       <c r="D157" s="19" t="s">
         <v>441</v>
       </c>
@@ -7051,8 +7048,8 @@
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
       <c r="D158" s="19" t="s">
         <v>442</v>
       </c>
@@ -7097,10 +7094,10 @@
       <c r="T159" s="33"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="C160" s="39" t="s">
+      <c r="C160" s="40" t="s">
         <v>378</v>
       </c>
       <c r="D160" s="19" t="s">
@@ -7126,8 +7123,8 @@
       <c r="T160" s="1"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B161" s="39"/>
-      <c r="C161" s="39"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
       <c r="D161" s="19" t="s">
         <v>380</v>
       </c>
@@ -7151,8 +7148,8 @@
       <c r="T161" s="1"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B162" s="39"/>
-      <c r="C162" s="39"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
       <c r="D162" s="19" t="s">
         <v>381</v>
       </c>
@@ -7176,8 +7173,8 @@
       <c r="T162" s="1"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B163" s="39"/>
-      <c r="C163" s="39"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
       <c r="D163" s="19" t="s">
         <v>382</v>
       </c>
@@ -7201,8 +7198,8 @@
       <c r="T163" s="1"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B164" s="39"/>
-      <c r="C164" s="39"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
       <c r="D164" s="19" t="s">
         <v>383</v>
       </c>
@@ -7226,8 +7223,8 @@
       <c r="T164" s="1"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B165" s="39"/>
-      <c r="C165" s="39"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="40"/>
       <c r="D165" s="19" t="s">
         <v>147</v>
       </c>
@@ -7251,8 +7248,8 @@
       <c r="T165" s="1"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
       <c r="D166" s="19" t="s">
         <v>384</v>
       </c>
@@ -7276,7 +7273,7 @@
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="39"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="27"/>
       <c r="D167" s="19"/>
       <c r="E167" s="1"/>
@@ -7297,7 +7294,7 @@
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="39"/>
+      <c r="B168" s="40"/>
       <c r="C168" s="27"/>
       <c r="D168" s="19"/>
       <c r="E168" s="1"/>
@@ -7318,7 +7315,7 @@
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="39"/>
+      <c r="B169" s="40"/>
       <c r="C169" s="27"/>
       <c r="D169" s="19"/>
       <c r="E169" s="1"/>
@@ -7339,7 +7336,7 @@
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="39"/>
+      <c r="B170" s="40"/>
       <c r="C170" s="27"/>
       <c r="D170" s="19"/>
       <c r="E170" s="1"/>
@@ -7360,7 +7357,7 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="39"/>
+      <c r="B171" s="40"/>
       <c r="C171" s="27"/>
       <c r="D171" s="19"/>
       <c r="E171" s="1"/>
@@ -7381,7 +7378,7 @@
       <c r="T171" s="1"/>
     </row>
     <row r="172" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="39"/>
+      <c r="B172" s="40"/>
       <c r="C172" s="27"/>
       <c r="D172" s="19"/>
       <c r="E172" s="1"/>
@@ -7402,7 +7399,7 @@
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="39"/>
+      <c r="B173" s="40"/>
       <c r="C173" s="27"/>
       <c r="D173" s="19"/>
       <c r="E173" s="1"/>
@@ -7423,7 +7420,7 @@
       <c r="T173" s="1"/>
     </row>
     <row r="174" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="39"/>
+      <c r="B174" s="40"/>
       <c r="C174" s="27"/>
       <c r="D174" s="19"/>
       <c r="E174" s="1"/>
@@ -7444,7 +7441,7 @@
       <c r="T174" s="1"/>
     </row>
     <row r="175" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="39"/>
+      <c r="B175" s="40"/>
       <c r="C175" s="27"/>
       <c r="D175" s="19"/>
       <c r="E175" s="1"/>
@@ -7465,7 +7462,7 @@
       <c r="T175" s="1"/>
     </row>
     <row r="176" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="39"/>
+      <c r="B176" s="40"/>
       <c r="C176" s="27"/>
       <c r="D176" s="19"/>
       <c r="E176" s="1"/>
@@ -7486,7 +7483,7 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="39"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="27"/>
       <c r="D177" s="19"/>
       <c r="E177" s="1"/>
@@ -7507,8 +7504,8 @@
       <c r="T177" s="1"/>
     </row>
     <row r="178" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="39"/>
-      <c r="C178" s="39" t="s">
+      <c r="B178" s="40"/>
+      <c r="C178" s="40" t="s">
         <v>395</v>
       </c>
       <c r="D178" s="27" t="s">
@@ -7534,8 +7531,8 @@
       <c r="T178" s="1"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="40"/>
       <c r="D179" s="19" t="s">
         <v>393</v>
       </c>
@@ -7559,8 +7556,8 @@
       <c r="T179" s="1"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B180" s="39"/>
-      <c r="C180" s="39"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
       <c r="D180" s="19" t="s">
         <v>394</v>
       </c>
@@ -7584,7 +7581,7 @@
       <c r="T180" s="1"/>
     </row>
     <row r="181" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="39"/>
+      <c r="B181" s="40"/>
       <c r="C181" s="27"/>
       <c r="D181" s="19"/>
       <c r="E181" s="1"/>
@@ -7605,7 +7602,7 @@
       <c r="T181" s="1"/>
     </row>
     <row r="182" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="39"/>
+      <c r="B182" s="40"/>
       <c r="C182" s="27"/>
       <c r="D182" s="19"/>
       <c r="E182" s="1"/>
@@ -7626,7 +7623,7 @@
       <c r="T182" s="1"/>
     </row>
     <row r="183" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="39"/>
+      <c r="B183" s="40"/>
       <c r="C183" s="27"/>
       <c r="D183" s="19"/>
       <c r="E183" s="1"/>
@@ -7647,7 +7644,7 @@
       <c r="T183" s="1"/>
     </row>
     <row r="184" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="39"/>
+      <c r="B184" s="40"/>
       <c r="C184" s="27"/>
       <c r="D184" s="19"/>
       <c r="E184" s="1"/>
@@ -7668,7 +7665,7 @@
       <c r="T184" s="1"/>
     </row>
     <row r="185" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="27"/>
       <c r="D185" s="19"/>
       <c r="E185" s="1"/>
@@ -7689,7 +7686,7 @@
       <c r="T185" s="1"/>
     </row>
     <row r="186" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B186" s="39"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="27" t="s">
         <v>409</v>
       </c>
@@ -7716,7 +7713,7 @@
       <c r="T186" s="1"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B187" s="39"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="27" t="s">
         <v>410</v>
       </c>
@@ -7743,8 +7740,8 @@
       <c r="T187" s="1"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B188" s="39"/>
-      <c r="C188" s="39" t="s">
+      <c r="B188" s="40"/>
+      <c r="C188" s="40" t="s">
         <v>411</v>
       </c>
       <c r="D188" s="19" t="s">
@@ -7770,8 +7767,8 @@
       <c r="T188" s="1"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="40"/>
       <c r="D189" s="19" t="s">
         <v>415</v>
       </c>
@@ -7795,8 +7792,8 @@
       <c r="T189" s="1"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B190" s="39"/>
-      <c r="C190" s="39"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
       <c r="D190" s="19" t="s">
         <v>414</v>
       </c>
@@ -7820,8 +7817,8 @@
       <c r="T190" s="1"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B191" s="39"/>
-      <c r="C191" s="39"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="40"/>
       <c r="D191" s="19" t="s">
         <v>417</v>
       </c>
@@ -7845,8 +7842,8 @@
       <c r="T191" s="1"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B192" s="39"/>
-      <c r="C192" s="39"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="40"/>
       <c r="D192" s="19" t="s">
         <v>416</v>
       </c>
@@ -7870,8 +7867,8 @@
       <c r="T192" s="1"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B193" s="39"/>
-      <c r="C193" s="39"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="40"/>
       <c r="D193" s="19" t="s">
         <v>421</v>
       </c>
@@ -7895,8 +7892,8 @@
       <c r="T193" s="1"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B194" s="39"/>
-      <c r="C194" s="39"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
       <c r="D194" s="19" t="s">
         <v>423</v>
       </c>
@@ -7920,8 +7917,8 @@
       <c r="T194" s="1"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B195" s="39"/>
-      <c r="C195" s="39"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="40"/>
       <c r="D195" s="27" t="s">
         <v>413</v>
       </c>
@@ -7945,8 +7942,8 @@
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B196" s="39"/>
-      <c r="C196" s="39"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="40"/>
       <c r="D196" s="19" t="s">
         <v>420</v>
       </c>
@@ -7970,8 +7967,8 @@
       <c r="T196" s="1"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B197" s="39"/>
-      <c r="C197" s="39"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="40"/>
       <c r="D197" s="19" t="s">
         <v>419</v>
       </c>
@@ -7995,8 +7992,8 @@
       <c r="T197" s="1"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B198" s="39"/>
-      <c r="C198" s="39"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="40"/>
       <c r="D198" s="19" t="s">
         <v>422</v>
       </c>
@@ -8020,8 +8017,8 @@
       <c r="T198" s="1"/>
     </row>
     <row r="199" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B199" s="39"/>
-      <c r="C199" s="39"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
       <c r="D199" s="19" t="s">
         <v>418</v>
       </c>
@@ -8045,8 +8042,8 @@
       <c r="T199" s="1"/>
     </row>
     <row r="200" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B200" s="39"/>
-      <c r="C200" s="39" t="s">
+      <c r="B200" s="40"/>
+      <c r="C200" s="40" t="s">
         <v>397</v>
       </c>
       <c r="D200" s="19" t="s">
@@ -8072,8 +8069,8 @@
       <c r="T200" s="1"/>
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B201" s="39"/>
-      <c r="C201" s="39"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="40"/>
       <c r="D201" s="19" t="s">
         <v>399</v>
       </c>
@@ -8097,8 +8094,8 @@
       <c r="T201" s="1"/>
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B202" s="39"/>
-      <c r="C202" s="39"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="40"/>
       <c r="D202" s="19" t="s">
         <v>398</v>
       </c>
@@ -8122,8 +8119,8 @@
       <c r="T202" s="1"/>
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B203" s="39"/>
-      <c r="C203" s="39"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
       <c r="D203" s="19" t="s">
         <v>400</v>
       </c>
@@ -8147,8 +8144,8 @@
       <c r="T203" s="1"/>
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="40"/>
       <c r="D204" s="19" t="s">
         <v>401</v>
       </c>
@@ -8172,8 +8169,8 @@
       <c r="T204" s="1"/>
     </row>
     <row r="205" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B205" s="39"/>
-      <c r="C205" s="39" t="s">
+      <c r="B205" s="40"/>
+      <c r="C205" s="40" t="s">
         <v>385</v>
       </c>
       <c r="D205" s="19" t="s">
@@ -8199,8 +8196,8 @@
       <c r="T205" s="1"/>
     </row>
     <row r="206" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B206" s="39"/>
-      <c r="C206" s="39"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="40"/>
       <c r="D206" s="19" t="s">
         <v>404</v>
       </c>
@@ -8224,8 +8221,8 @@
       <c r="T206" s="1"/>
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B207" s="39"/>
-      <c r="C207" s="39"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="40"/>
       <c r="D207" s="19" t="s">
         <v>387</v>
       </c>
@@ -8249,8 +8246,8 @@
       <c r="T207" s="1"/>
     </row>
     <row r="208" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B208" s="39"/>
-      <c r="C208" s="39"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="40"/>
       <c r="D208" s="19" t="s">
         <v>405</v>
       </c>
@@ -8274,8 +8271,8 @@
       <c r="T208" s="1"/>
     </row>
     <row r="209" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B209" s="39"/>
-      <c r="C209" s="39"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="40"/>
       <c r="D209" s="19" t="s">
         <v>388</v>
       </c>
@@ -8299,8 +8296,8 @@
       <c r="T209" s="1"/>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="39"/>
-      <c r="C210" s="39"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="40"/>
       <c r="D210" s="19" t="s">
         <v>389</v>
       </c>
@@ -8324,8 +8321,8 @@
       <c r="T210" s="1"/>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="40"/>
       <c r="D211" s="19" t="s">
         <v>386</v>
       </c>
@@ -8349,8 +8346,8 @@
       <c r="T211" s="1"/>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="39"/>
-      <c r="C212" s="39"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="40"/>
       <c r="D212" s="19" t="s">
         <v>406</v>
       </c>
@@ -8374,8 +8371,8 @@
       <c r="T212" s="1"/>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="39"/>
-      <c r="C213" s="39"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="40"/>
       <c r="D213" s="19" t="s">
         <v>407</v>
       </c>
@@ -8399,8 +8396,8 @@
       <c r="T213" s="1"/>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="39"/>
-      <c r="C214" s="39" t="s">
+      <c r="B214" s="40"/>
+      <c r="C214" s="40" t="s">
         <v>390</v>
       </c>
       <c r="D214" s="19" t="s">
@@ -8426,8 +8423,8 @@
       <c r="T214" s="1"/>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="39"/>
-      <c r="C215" s="39"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
       <c r="D215" s="19" t="s">
         <v>408</v>
       </c>
@@ -8472,7 +8469,7 @@
       <c r="T216" s="33"/>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B217" s="39" t="s">
+      <c r="B217" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C217" s="27" t="s">
@@ -8501,7 +8498,7 @@
       <c r="T217" s="1"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B218" s="39"/>
+      <c r="B218" s="40"/>
       <c r="C218" s="27" t="s">
         <v>428</v>
       </c>
@@ -8528,7 +8525,7 @@
       <c r="T218" s="1"/>
     </row>
     <row r="219" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B219" s="39"/>
+      <c r="B219" s="40"/>
       <c r="C219" s="27" t="s">
         <v>429</v>
       </c>
@@ -8555,7 +8552,7 @@
       <c r="T219" s="1"/>
     </row>
     <row r="220" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B220" s="39"/>
+      <c r="B220" s="40"/>
       <c r="C220" s="27" t="s">
         <v>430</v>
       </c>
@@ -8582,7 +8579,7 @@
       <c r="T220" s="1"/>
     </row>
     <row r="221" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B221" s="39"/>
+      <c r="B221" s="40"/>
       <c r="C221" s="27" t="s">
         <v>431</v>
       </c>
@@ -8609,7 +8606,7 @@
       <c r="T221" s="1"/>
     </row>
     <row r="222" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B222" s="39"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="27" t="s">
         <v>432</v>
       </c>
@@ -8636,7 +8633,7 @@
       <c r="T222" s="1"/>
     </row>
     <row r="223" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B223" s="39"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="27" t="s">
         <v>433</v>
       </c>
@@ -8667,26 +8664,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="C66:C73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B41:B58"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B3:B39"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C188:C199"/>
+    <mergeCell ref="B160:B215"/>
+    <mergeCell ref="B217:B223"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="B152:B158"/>
+    <mergeCell ref="C160:C166"/>
+    <mergeCell ref="C205:C213"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C200:C204"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="B60:B111"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B113:B150"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="C93:C107"/>
     <mergeCell ref="D84:D86"/>
     <mergeCell ref="D87:D90"/>
     <mergeCell ref="C84:C92"/>
@@ -8703,33 +8707,26 @@
     <mergeCell ref="C60:C65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="C93:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="B60:B111"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B113:B150"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C188:C199"/>
-    <mergeCell ref="B160:B215"/>
-    <mergeCell ref="B217:B223"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="B152:B158"/>
-    <mergeCell ref="C160:C166"/>
-    <mergeCell ref="C205:C213"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C200:C204"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B41:B58"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B3:B39"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
